--- a/transform/static/files/발주파일.xlsx
+++ b/transform/static/files/발주파일.xlsx
@@ -636,7 +636,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -644,12 +644,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -667,7 +667,11 @@
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -723,7 +727,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -731,12 +735,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -754,7 +758,11 @@
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -810,7 +818,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -818,12 +826,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -841,7 +849,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -897,7 +909,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -905,12 +917,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -928,7 +940,11 @@
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -984,7 +1000,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -992,12 +1008,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1015,7 +1031,11 @@
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -1071,7 +1091,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1079,12 +1099,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1102,7 +1122,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1158,7 +1182,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1166,12 +1190,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1189,7 +1213,11 @@
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1245,7 +1273,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1253,12 +1281,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1276,7 +1304,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1332,7 +1364,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1340,12 +1372,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1363,7 +1395,11 @@
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1419,7 +1455,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1427,12 +1463,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1450,7 +1486,11 @@
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1506,7 +1546,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1514,12 +1554,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1537,7 +1577,11 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1593,7 +1637,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1601,12 +1645,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1624,7 +1668,11 @@
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1680,7 +1728,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1688,12 +1736,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1711,7 +1759,11 @@
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1767,7 +1819,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1775,12 +1827,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1798,7 +1850,11 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1854,7 +1910,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1862,12 +1918,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1885,7 +1941,11 @@
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1941,7 +2001,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1949,12 +2009,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1972,7 +2032,11 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -2028,7 +2092,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2036,12 +2100,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2059,7 +2123,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -2115,7 +2183,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2123,12 +2191,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2146,7 +2214,11 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -2202,7 +2274,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -2210,12 +2282,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2233,7 +2305,11 @@
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
@@ -2289,7 +2365,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2297,12 +2373,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2320,7 +2396,11 @@
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
@@ -2376,7 +2456,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -2384,12 +2464,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2407,7 +2487,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -2463,7 +2547,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -2471,12 +2555,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2494,7 +2578,11 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2550,7 +2638,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2558,12 +2646,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2581,7 +2669,11 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -2637,7 +2729,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2645,12 +2737,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2668,7 +2760,11 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
@@ -2724,7 +2820,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2732,12 +2828,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2755,7 +2851,11 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2811,7 +2911,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2819,12 +2919,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2842,7 +2942,11 @@
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
@@ -2898,7 +3002,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -2906,12 +3010,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2929,7 +3033,11 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -2985,7 +3093,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2993,12 +3101,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3016,7 +3124,11 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
@@ -3072,7 +3184,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -3080,12 +3192,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3103,7 +3215,11 @@
       </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
@@ -3159,7 +3275,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -3167,12 +3283,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -3190,7 +3306,11 @@
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
@@ -3246,7 +3366,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3254,12 +3374,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -3277,7 +3397,11 @@
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
@@ -3333,7 +3457,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -3341,12 +3465,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3364,7 +3488,11 @@
       </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -3420,7 +3548,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -3428,12 +3556,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -3451,7 +3579,11 @@
       </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
@@ -3507,7 +3639,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -3515,12 +3647,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3538,7 +3670,11 @@
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
@@ -3594,7 +3730,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -3602,12 +3738,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -3625,7 +3761,11 @@
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
@@ -3681,7 +3821,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -3689,12 +3829,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -3712,7 +3852,11 @@
       </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
@@ -3768,7 +3912,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -3776,12 +3920,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -3799,7 +3943,11 @@
       </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
@@ -3855,7 +4003,7 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -3863,12 +4011,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -3886,7 +4034,11 @@
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -3942,7 +4094,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -3950,12 +4102,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -3973,7 +4125,11 @@
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
@@ -4029,7 +4185,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -4037,12 +4193,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -4060,7 +4216,11 @@
       </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
@@ -4116,7 +4276,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -4124,12 +4284,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4147,7 +4307,11 @@
       </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
@@ -4203,7 +4367,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -4211,12 +4375,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -4234,7 +4398,11 @@
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
@@ -4290,7 +4458,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -4298,12 +4466,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -4321,7 +4489,11 @@
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
@@ -4377,7 +4549,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -4385,12 +4557,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -4408,7 +4580,11 @@
       </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
@@ -4464,7 +4640,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -4472,12 +4648,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -4495,7 +4671,11 @@
       </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
@@ -4551,7 +4731,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -4559,12 +4739,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -4582,7 +4762,11 @@
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
@@ -4638,7 +4822,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -4646,12 +4830,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -4669,7 +4853,11 @@
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -4725,7 +4913,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -4733,12 +4921,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -4756,7 +4944,11 @@
       </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
@@ -4812,7 +5004,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -4820,12 +5012,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -4843,7 +5035,11 @@
       </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
@@ -4899,7 +5095,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -4907,12 +5103,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -4930,7 +5126,11 @@
       </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
@@ -4986,7 +5186,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -4994,12 +5194,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5017,7 +5217,11 @@
       </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
@@ -5073,7 +5277,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -5081,12 +5285,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -5104,7 +5308,11 @@
       </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
@@ -5160,7 +5368,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5168,12 +5376,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -5191,7 +5399,11 @@
       </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
@@ -5247,7 +5459,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -5255,12 +5467,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -5278,7 +5490,11 @@
       </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
@@ -5334,7 +5550,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5342,12 +5558,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -5365,7 +5581,11 @@
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
@@ -5421,7 +5641,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -5429,12 +5649,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -5452,7 +5672,11 @@
       </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
@@ -5508,7 +5732,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -5516,12 +5740,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -5539,7 +5763,11 @@
       </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
@@ -5595,7 +5823,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -5603,12 +5831,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -5626,7 +5854,11 @@
       </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
@@ -5682,7 +5914,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -5690,12 +5922,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -5713,7 +5945,11 @@
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
@@ -5769,7 +6005,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -5777,12 +6013,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -5800,7 +6036,11 @@
       </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
@@ -5856,7 +6096,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -5864,12 +6104,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -5887,7 +6127,11 @@
       </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
@@ -5943,7 +6187,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -5951,12 +6195,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -5974,7 +6218,11 @@
       </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
@@ -6030,7 +6278,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6038,12 +6286,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -6061,7 +6309,11 @@
       </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
@@ -6117,7 +6369,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -6125,12 +6377,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -6148,7 +6400,11 @@
       </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -6204,7 +6460,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -6212,12 +6468,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -6235,7 +6491,11 @@
       </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
@@ -6291,7 +6551,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -6299,12 +6559,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -6322,7 +6582,11 @@
       </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
@@ -6378,7 +6642,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -6386,12 +6650,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -6409,7 +6673,11 @@
       </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
@@ -6465,7 +6733,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -6473,12 +6741,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -6496,7 +6764,11 @@
       </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
@@ -6552,7 +6824,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -6560,12 +6832,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -6583,7 +6855,11 @@
       </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
@@ -6639,7 +6915,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -6647,12 +6923,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -6670,7 +6946,11 @@
       </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
@@ -6726,7 +7006,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -6734,12 +7014,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -6757,7 +7037,11 @@
       </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
@@ -6813,7 +7097,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -6821,12 +7105,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -6844,7 +7128,11 @@
       </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
@@ -6900,7 +7188,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -6908,12 +7196,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -6931,7 +7219,11 @@
       </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
@@ -6987,7 +7279,7 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -6995,12 +7287,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -7018,7 +7310,11 @@
       </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
@@ -7074,7 +7370,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -7082,12 +7378,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -7105,7 +7401,11 @@
       </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
@@ -7161,7 +7461,7 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -7169,12 +7469,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -7192,7 +7492,11 @@
       </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
@@ -7248,7 +7552,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -7256,12 +7560,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -7279,7 +7583,11 @@
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
@@ -7335,7 +7643,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -7343,12 +7651,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -7366,7 +7674,11 @@
       </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
@@ -7422,7 +7734,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -7430,12 +7742,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -7453,7 +7765,11 @@
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
@@ -7509,7 +7825,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -7517,12 +7833,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -7540,7 +7856,11 @@
       </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
@@ -7596,7 +7916,7 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -7604,12 +7924,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -7627,7 +7947,11 @@
       </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
@@ -7683,7 +8007,7 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -7691,12 +8015,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -7714,7 +8038,11 @@
       </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
@@ -7770,7 +8098,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -7778,12 +8106,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -7801,7 +8129,11 @@
       </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -7857,7 +8189,7 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -7865,12 +8197,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -7888,7 +8220,11 @@
       </c>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -7944,7 +8280,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -7952,12 +8288,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -7975,7 +8311,11 @@
       </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
@@ -8031,7 +8371,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -8039,12 +8379,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -8062,7 +8402,11 @@
       </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
@@ -8118,7 +8462,7 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -8126,12 +8470,12 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -8149,7 +8493,11 @@
       </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
@@ -8205,7 +8553,7 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -8213,12 +8561,12 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -8236,7 +8584,11 @@
       </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
@@ -8292,7 +8644,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -8300,12 +8652,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -8323,7 +8675,11 @@
       </c>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
@@ -8379,7 +8735,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -8387,12 +8743,12 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -8410,7 +8766,11 @@
       </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
@@ -8466,7 +8826,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -8474,12 +8834,12 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -8497,7 +8857,11 @@
       </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
@@ -8553,7 +8917,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -8561,12 +8925,12 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -8584,7 +8948,11 @@
       </c>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
@@ -8640,7 +9008,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -8648,12 +9016,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -8671,7 +9039,11 @@
       </c>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
@@ -8727,7 +9099,7 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -8735,12 +9107,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -8758,7 +9130,11 @@
       </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
@@ -8814,7 +9190,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -8822,12 +9198,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -8845,7 +9221,11 @@
       </c>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
@@ -8901,7 +9281,7 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -8909,12 +9289,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -8932,7 +9312,11 @@
       </c>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
@@ -8988,7 +9372,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -8996,12 +9380,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -9019,7 +9403,11 @@
       </c>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
@@ -9075,7 +9463,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -9083,12 +9471,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -9106,7 +9494,11 @@
       </c>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
@@ -9162,7 +9554,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -9170,12 +9562,12 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
@@ -9193,7 +9585,11 @@
       </c>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
@@ -9249,7 +9645,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -9257,12 +9653,12 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
@@ -9280,7 +9676,11 @@
       </c>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
@@ -9336,7 +9736,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -9344,12 +9744,12 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
@@ -9367,7 +9767,11 @@
       </c>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
@@ -9423,7 +9827,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -9431,12 +9835,12 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
@@ -9454,7 +9858,11 @@
       </c>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
@@ -9510,7 +9918,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -9518,12 +9926,12 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -9541,7 +9949,11 @@
       </c>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
@@ -9597,7 +10009,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -9605,12 +10017,12 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -9628,7 +10040,11 @@
       </c>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
@@ -9684,7 +10100,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -9692,12 +10108,12 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -9715,7 +10131,11 @@
       </c>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
@@ -9771,7 +10191,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -9779,12 +10199,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -9802,7 +10222,11 @@
       </c>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
@@ -9858,7 +10282,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -9866,12 +10290,12 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -9889,7 +10313,11 @@
       </c>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
@@ -9945,7 +10373,7 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -9953,12 +10381,12 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -9976,7 +10404,11 @@
       </c>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
@@ -10032,7 +10464,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -10040,12 +10472,12 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -10063,7 +10495,11 @@
       </c>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
@@ -10119,7 +10555,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -10127,12 +10563,12 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
@@ -10150,7 +10586,11 @@
       </c>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
@@ -10206,7 +10646,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -10214,12 +10654,12 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
@@ -10237,7 +10677,11 @@
       </c>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
@@ -10293,7 +10737,7 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -10301,12 +10745,12 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -10324,7 +10768,11 @@
       </c>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
@@ -10380,7 +10828,7 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -10388,12 +10836,12 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -10411,7 +10859,11 @@
       </c>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
@@ -10467,7 +10919,7 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -10475,12 +10927,12 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
@@ -10498,7 +10950,11 @@
       </c>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
@@ -10554,7 +11010,7 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -10562,12 +11018,12 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
@@ -10585,7 +11041,11 @@
       </c>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
@@ -10641,7 +11101,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -10649,12 +11109,12 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
@@ -10672,7 +11132,11 @@
       </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
@@ -10728,7 +11192,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -10736,12 +11200,12 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -10759,7 +11223,11 @@
       </c>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
@@ -10815,7 +11283,7 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -10823,12 +11291,12 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -10846,7 +11314,11 @@
       </c>
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
@@ -10902,7 +11374,7 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -10910,12 +11382,12 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
@@ -10933,7 +11405,11 @@
       </c>
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
@@ -10989,7 +11465,7 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -10997,12 +11473,12 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
@@ -11020,7 +11496,11 @@
       </c>
       <c r="X121" t="inlineStr"/>
       <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
@@ -11076,7 +11556,7 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -11084,12 +11564,12 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
@@ -11107,7 +11587,11 @@
       </c>
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
@@ -11163,7 +11647,7 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -11171,12 +11655,12 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
@@ -11194,7 +11678,11 @@
       </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
@@ -11250,7 +11738,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -11258,12 +11746,12 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -11281,7 +11769,11 @@
       </c>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
@@ -11337,7 +11829,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -11345,12 +11837,12 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O125" t="inlineStr"/>
@@ -11368,7 +11860,11 @@
       </c>
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
@@ -11424,7 +11920,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -11432,12 +11928,12 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
@@ -11455,7 +11951,11 @@
       </c>
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
@@ -11511,7 +12011,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -11519,12 +12019,12 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
@@ -11542,7 +12042,11 @@
       </c>
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
@@ -11598,7 +12102,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -11606,12 +12110,12 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
@@ -11629,7 +12133,11 @@
       </c>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
@@ -11685,7 +12193,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -11693,12 +12201,12 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
@@ -11716,7 +12224,11 @@
       </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
@@ -11772,7 +12284,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -11780,12 +12292,12 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O130" t="inlineStr"/>
@@ -11803,7 +12315,11 @@
       </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
@@ -11859,7 +12375,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -11867,12 +12383,12 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
@@ -11890,7 +12406,11 @@
       </c>
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
@@ -11946,7 +12466,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -11954,12 +12474,12 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
@@ -11977,7 +12497,11 @@
       </c>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
@@ -12033,7 +12557,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -12041,12 +12565,12 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
@@ -12064,7 +12588,11 @@
       </c>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
@@ -12120,7 +12648,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -12128,12 +12656,12 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -12151,7 +12679,11 @@
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
@@ -12207,7 +12739,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -12215,12 +12747,12 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -12238,7 +12770,11 @@
       </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
@@ -12294,7 +12830,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -12302,12 +12838,12 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -12325,7 +12861,11 @@
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
@@ -12381,7 +12921,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -12389,12 +12929,12 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -12412,7 +12952,11 @@
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
@@ -12468,7 +13012,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -12476,12 +13020,12 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -12499,7 +13043,11 @@
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
@@ -12555,7 +13103,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -12563,12 +13111,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
@@ -12586,7 +13134,11 @@
       </c>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
@@ -12642,7 +13194,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -12650,12 +13202,12 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
@@ -12673,7 +13225,11 @@
       </c>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
@@ -12729,7 +13285,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -12737,12 +13293,12 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
@@ -12760,7 +13316,11 @@
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
@@ -12816,7 +13376,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -12824,12 +13384,12 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
@@ -12847,7 +13407,11 @@
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
@@ -12903,7 +13467,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -12911,12 +13475,12 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
@@ -12934,7 +13498,11 @@
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
@@ -12990,7 +13558,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -12998,12 +13566,12 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O144" t="inlineStr"/>
@@ -13021,7 +13589,11 @@
       </c>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
@@ -13077,7 +13649,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -13085,12 +13657,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
@@ -13108,7 +13680,11 @@
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
@@ -13164,7 +13740,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -13172,12 +13748,12 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
@@ -13195,7 +13771,11 @@
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
@@ -13251,7 +13831,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -13259,12 +13839,12 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
@@ -13282,7 +13862,11 @@
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
@@ -13338,7 +13922,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -13346,12 +13930,12 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O148" t="inlineStr"/>
@@ -13369,7 +13953,11 @@
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
@@ -13425,7 +14013,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -13433,12 +14021,12 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
@@ -13456,7 +14044,11 @@
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
@@ -13512,7 +14104,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -13520,12 +14112,12 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
@@ -13543,7 +14135,11 @@
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
@@ -13599,7 +14195,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -13607,12 +14203,12 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
@@ -13630,7 +14226,11 @@
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
@@ -13686,7 +14286,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -13694,12 +14294,12 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
@@ -13717,7 +14317,11 @@
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
@@ -13773,7 +14377,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -13781,12 +14385,12 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
@@ -13804,7 +14408,11 @@
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
@@ -13860,7 +14468,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -13868,12 +14476,12 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O154" t="inlineStr"/>
@@ -13891,7 +14499,11 @@
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
@@ -13947,7 +14559,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -13955,12 +14567,12 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O155" t="inlineStr"/>
@@ -13978,7 +14590,11 @@
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
@@ -14034,7 +14650,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -14042,12 +14658,12 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
@@ -14065,7 +14681,11 @@
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
@@ -14121,7 +14741,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -14129,12 +14749,12 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
@@ -14152,7 +14772,11 @@
       </c>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
@@ -14208,7 +14832,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -14216,12 +14840,12 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
@@ -14239,7 +14863,11 @@
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
@@ -14295,7 +14923,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -14303,12 +14931,12 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
@@ -14326,7 +14954,11 @@
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
@@ -14382,7 +15014,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -14390,12 +15022,12 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O160" t="inlineStr"/>
@@ -14413,7 +15045,11 @@
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
@@ -14469,7 +15105,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -14477,12 +15113,12 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O161" t="inlineStr"/>
@@ -14500,7 +15136,11 @@
       </c>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
@@ -14556,7 +15196,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -14564,12 +15204,12 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O162" t="inlineStr"/>
@@ -14587,7 +15227,11 @@
       </c>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
@@ -14643,7 +15287,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -14651,12 +15295,12 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
@@ -14674,7 +15318,11 @@
       </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
@@ -14730,7 +15378,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -14738,12 +15386,12 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
@@ -14761,7 +15409,11 @@
       </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
@@ -14817,7 +15469,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -14825,12 +15477,12 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
@@ -14848,7 +15500,11 @@
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
@@ -14904,7 +15560,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -14912,12 +15568,12 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
@@ -14935,7 +15591,11 @@
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
@@ -14991,7 +15651,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -14999,12 +15659,12 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O167" t="inlineStr"/>
@@ -15022,7 +15682,11 @@
       </c>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
@@ -15078,7 +15742,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -15086,12 +15750,12 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
@@ -15109,7 +15773,11 @@
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
@@ -15165,7 +15833,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -15173,12 +15841,12 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
@@ -15196,7 +15864,11 @@
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
@@ -15252,7 +15924,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>신</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -15260,12 +15932,12 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>fsdgfsdgfds</t>
+          <t>33333</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>sdfgfsdg</t>
+          <t>집</t>
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
@@ -15283,7 +15955,11 @@
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>

--- a/transform/static/files/발주파일.xlsx
+++ b/transform/static/files/발주파일.xlsx
@@ -636,22 +636,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -723,22 +715,14 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -810,22 +794,14 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -897,22 +873,14 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -984,22 +952,14 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1071,22 +1031,14 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1158,22 +1110,14 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1245,22 +1189,14 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1332,22 +1268,14 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1419,22 +1347,14 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1506,22 +1426,14 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1593,22 +1505,14 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1680,22 +1584,14 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1767,22 +1663,14 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1854,22 +1742,14 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1941,22 +1821,14 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -2028,22 +1900,14 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2115,22 +1979,14 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -2202,22 +2058,14 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2289,22 +2137,14 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -2376,22 +2216,14 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -2463,22 +2295,14 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2550,22 +2374,14 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2637,22 +2453,14 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2724,22 +2532,14 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -2811,22 +2611,14 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2898,22 +2690,14 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2985,22 +2769,14 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -3072,22 +2848,14 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -3159,22 +2927,14 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -3246,22 +3006,14 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -3333,22 +3085,14 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -3420,22 +3164,14 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -3507,22 +3243,14 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -3594,22 +3322,14 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -3681,22 +3401,14 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -3768,22 +3480,14 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -3855,22 +3559,14 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3942,22 +3638,14 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -4029,22 +3717,14 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -4116,22 +3796,14 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -4203,22 +3875,14 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -4290,22 +3954,14 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -4377,22 +4033,14 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -4464,22 +4112,14 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -4551,22 +4191,14 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -4638,22 +4270,14 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -4725,22 +4349,14 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -4812,22 +4428,14 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -4899,22 +4507,14 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -4986,22 +4586,14 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -5073,22 +4665,14 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -5160,22 +4744,14 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -5247,22 +4823,14 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -5334,22 +4902,14 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -5421,22 +4981,14 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -5508,22 +5060,14 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -5595,22 +5139,14 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -5682,22 +5218,14 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -5769,22 +5297,14 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -5856,22 +5376,14 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -5943,22 +5455,14 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -6030,22 +5534,14 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -6117,22 +5613,14 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -6204,22 +5692,14 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -6291,22 +5771,14 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -6378,22 +5850,14 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -6465,22 +5929,14 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -6552,22 +6008,14 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -6639,22 +6087,14 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -6726,22 +6166,14 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -6813,22 +6245,14 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -6900,22 +6324,14 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -6987,22 +6403,14 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -7074,22 +6482,14 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -7161,22 +6561,14 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -7248,22 +6640,14 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -7335,22 +6719,14 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
@@ -7422,22 +6798,14 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -7509,22 +6877,14 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -7596,22 +6956,14 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
@@ -7683,22 +7035,14 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -7770,22 +7114,14 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
@@ -7857,22 +7193,14 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
@@ -7944,22 +7272,14 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -8031,22 +7351,14 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -8118,22 +7430,14 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -8205,22 +7509,14 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -8292,22 +7588,14 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -8379,22 +7667,14 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
@@ -8466,22 +7746,14 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -8553,22 +7825,14 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -8640,22 +7904,14 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -8727,22 +7983,14 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -8814,22 +8062,14 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
@@ -8901,22 +8141,14 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
@@ -8988,22 +8220,14 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
@@ -9075,22 +8299,14 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
@@ -9162,22 +8378,14 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
@@ -9249,22 +8457,14 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
@@ -9336,22 +8536,14 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
@@ -9423,22 +8615,14 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
@@ -9510,22 +8694,14 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
@@ -9597,22 +8773,14 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
@@ -9684,22 +8852,14 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -9771,22 +8931,14 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
@@ -9858,22 +9010,14 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
@@ -9945,22 +9089,14 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
@@ -10032,22 +9168,14 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
@@ -10119,22 +9247,14 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
@@ -10206,22 +9326,14 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
@@ -10293,22 +9405,14 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -10380,22 +9484,14 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
@@ -10467,22 +9563,14 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
@@ -10554,22 +9642,14 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
@@ -10641,22 +9721,14 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
@@ -10728,22 +9800,14 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
@@ -10815,22 +9879,14 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
@@ -10902,22 +9958,14 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
@@ -10989,22 +10037,14 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
@@ -11076,22 +10116,14 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
@@ -11163,22 +10195,14 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
@@ -11250,22 +10274,14 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
@@ -11337,22 +10353,14 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
@@ -11424,22 +10432,14 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
@@ -11511,22 +10511,14 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
@@ -11598,22 +10590,14 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
@@ -11685,22 +10669,14 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
@@ -11772,22 +10748,14 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
@@ -11859,22 +10827,14 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
@@ -11946,22 +10906,14 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
@@ -12033,22 +10985,14 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
@@ -12120,22 +11064,14 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
@@ -12207,22 +11143,14 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
@@ -12294,22 +11222,14 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
@@ -12381,22 +11301,14 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
@@ -12468,22 +11380,14 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
@@ -12555,22 +11459,14 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
@@ -12642,22 +11538,14 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
@@ -12729,22 +11617,14 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -12816,22 +11696,14 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
@@ -12903,22 +11775,14 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
@@ -12990,22 +11854,14 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
@@ -13077,22 +11933,14 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
@@ -13164,22 +12012,14 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
@@ -13251,22 +12091,14 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
@@ -13338,22 +12170,14 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -13425,22 +12249,14 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
@@ -13512,22 +12328,14 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
@@ -13599,22 +12407,14 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -13686,22 +12486,14 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
@@ -13773,22 +12565,14 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
@@ -13860,22 +12644,14 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -13947,22 +12723,14 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
@@ -14034,22 +12802,14 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
@@ -14121,22 +12881,14 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
@@ -14208,22 +12960,14 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -14295,22 +13039,14 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
@@ -14382,22 +13118,14 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
@@ -14469,22 +13197,14 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
@@ -14556,22 +13276,14 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
@@ -14643,22 +13355,14 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
@@ -14730,22 +13434,14 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
@@ -14817,22 +13513,14 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
@@ -14904,22 +13592,14 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
@@ -14991,22 +13671,14 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
@@ -15078,22 +13750,14 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -15165,22 +13829,14 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -15252,22 +13908,14 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>rytgrdfsg</t>
+          <t>sungsoo</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>fsdgfsdgfds</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>sdfgfsdg</t>
-        </is>
-      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
